--- a/network_tickets/auto_tickets/VPN_Network_Ticket_Sample.xlsx
+++ b/network_tickets/auto_tickets/VPN_Network_Ticket_Sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\P7869\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A56AC19-8273-4D92-B8C5-EDDFBD038400}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C2C0E04-1849-4269-AB05-68182D6FFB21}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Destination IP</t>
   </si>
@@ -56,80 +56,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Requested by/Vender Manager Name</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Vender Name</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请人工号（默认作为合作伙伴上级）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>p1111</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TCP</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.2.2.2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.3.3.3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1.1.1
-11.11.11.11</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>合作伙伴姓名（保持与VPN账户一致）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>测试</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-测试2
-测试</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">11
-111
+    <t xml:space="preserve">协议(TCP/UDP/ICMP)
 </t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -139,43 +66,21 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">22, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>222</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">协议(TCP/UDP/ICMP)
-</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TCP
-ICMP</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>636
 233</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Leo
-Li,Ming
-王磊</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>UDP</t>
+    <t>Vender Email</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>合作伙伴邮箱（保持与VPN账户一致）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>vendor1@test.com
+vendor2@test.com</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -186,7 +91,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[DBNum2][$-804]General"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -246,29 +151,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="微軟正黑體"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Microsoft YaHei"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="微軟正黑體"/>
-      <family val="2"/>
-      <charset val="136"/>
     </font>
   </fonts>
   <fills count="3">
@@ -285,7 +167,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -308,21 +190,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFDEE0E3"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFDEE0E3"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFDEE0E3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFDEE0E3"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -333,7 +200,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -353,35 +220,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -665,10 +508,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5"/>
@@ -677,52 +520,45 @@
     <col min="2" max="2" width="19.453125" style="1" customWidth="1"/>
     <col min="3" max="3" width="21.6328125" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.08984375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.90625" style="1"/>
+    <col min="5" max="5" width="20.08984375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="39">
+    <row r="1" spans="1:5" ht="13">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>10</v>
+      <c r="E1" s="7" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" ht="54.5" customHeight="1">
+    <row r="2" spans="1:5" s="2" customFormat="1" ht="54.5" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="8" t="s">
+      <c r="C2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>17</v>
+      <c r="E2" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="3" customFormat="1" ht="39">
+    <row r="3" spans="1:5" s="3" customFormat="1" ht="26">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
@@ -730,76 +566,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="42">
-      <c r="A4" s="12">
-        <v>111</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="42">
-      <c r="A5" s="12">
-        <v>111</v>
-      </c>
-      <c r="B5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="42">
-      <c r="A6" s="1">
-        <v>111</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="16">
-        <v>33</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
